--- a/data/pca/factorExposure/factorExposure_2014-07-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-07-23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,21 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,30 +732,60 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.004947420256713705</v>
+        <v>0.0198823257726083</v>
       </c>
       <c r="C2">
-        <v>-0.1472633553395575</v>
+        <v>0.0706936141975236</v>
       </c>
       <c r="D2">
-        <v>0.03254516741636438</v>
+        <v>-0.03195864989253624</v>
       </c>
       <c r="E2">
-        <v>-0.2336836637298153</v>
+        <v>0.01104844315209148</v>
       </c>
       <c r="F2">
-        <v>0.06892512581865681</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.01686856972363727</v>
+      </c>
+      <c r="G2">
+        <v>-0.1596902461505123</v>
+      </c>
+      <c r="H2">
+        <v>0.03070738667670121</v>
+      </c>
+      <c r="I2">
+        <v>0.05168695157360283</v>
+      </c>
+      <c r="J2">
+        <v>0.1142113218191931</v>
+      </c>
+      <c r="K2">
+        <v>-0.0446551619710962</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -757,30 +802,60 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.01393825896880026</v>
+        <v>0.02144441388945155</v>
       </c>
       <c r="C4">
-        <v>-0.1732529133063863</v>
+        <v>0.1412303695008263</v>
       </c>
       <c r="D4">
-        <v>0.04644585672034506</v>
+        <v>-0.06359430962884939</v>
       </c>
       <c r="E4">
-        <v>-0.0339375704375507</v>
+        <v>0.008717542617779926</v>
       </c>
       <c r="F4">
-        <v>-0.07481626522690282</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.05723152797738793</v>
+      </c>
+      <c r="G4">
+        <v>-0.03331555843079425</v>
+      </c>
+      <c r="H4">
+        <v>-0.02839224766600401</v>
+      </c>
+      <c r="I4">
+        <v>-0.01215708579151509</v>
+      </c>
+      <c r="J4">
+        <v>0.09894336525917689</v>
+      </c>
+      <c r="K4">
+        <v>0.009022241253813956</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,230 +872,410 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.0389584409258534</v>
+        <v>0.04214473427339542</v>
       </c>
       <c r="C6">
-        <v>-0.07351665539529541</v>
+        <v>0.08554604330772077</v>
       </c>
       <c r="D6">
-        <v>0.06899928336168164</v>
+        <v>-0.02749888597344293</v>
       </c>
       <c r="E6">
-        <v>-0.03267650821713089</v>
+        <v>-0.02191835178434209</v>
       </c>
       <c r="F6">
-        <v>0.009358510914329763</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.01963596743810819</v>
+      </c>
+      <c r="G6">
+        <v>-0.0480138114950488</v>
+      </c>
+      <c r="H6">
+        <v>-0.04539329649854672</v>
+      </c>
+      <c r="I6">
+        <v>-0.06346887023867025</v>
+      </c>
+      <c r="J6">
+        <v>0.002388643304522897</v>
+      </c>
+      <c r="K6">
+        <v>-0.05172411899161173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.02005990156563062</v>
+        <v>0.02100402502321759</v>
       </c>
       <c r="C7">
-        <v>-0.08106957669113389</v>
+        <v>0.07354162355275183</v>
       </c>
       <c r="D7">
-        <v>0.04517499263283482</v>
+        <v>-0.03205893395679219</v>
       </c>
       <c r="E7">
-        <v>0.003592769501871301</v>
+        <v>-0.01896649743168572</v>
       </c>
       <c r="F7">
-        <v>0.0107505764627212</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.00497760909620924</v>
+      </c>
+      <c r="G7">
+        <v>0.01629882671058316</v>
+      </c>
+      <c r="H7">
+        <v>-0.02288275543064974</v>
+      </c>
+      <c r="I7">
+        <v>-0.002873007576735309</v>
+      </c>
+      <c r="J7">
+        <v>0.1074199086794188</v>
+      </c>
+      <c r="K7">
+        <v>-0.02392802045838089</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>0.01242173009139327</v>
+        <v>0.001990863623417056</v>
       </c>
       <c r="C8">
-        <v>-0.07158226966845554</v>
+        <v>0.06065630036802788</v>
       </c>
       <c r="D8">
-        <v>0.01982342337519754</v>
+        <v>-0.0435649567492421</v>
       </c>
       <c r="E8">
-        <v>-0.0831142804093184</v>
+        <v>-0.03104014527017013</v>
       </c>
       <c r="F8">
-        <v>-0.01221111370085205</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.0279860940709684</v>
+      </c>
+      <c r="G8">
+        <v>-0.06505288713097493</v>
+      </c>
+      <c r="H8">
+        <v>-0.0540119185721992</v>
+      </c>
+      <c r="I8">
+        <v>-0.00429971046572272</v>
+      </c>
+      <c r="J8">
+        <v>0.02368834468224628</v>
+      </c>
+      <c r="K8">
+        <v>0.01858929076825145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.008410877044917294</v>
+        <v>0.01377639761607814</v>
       </c>
       <c r="C9">
-        <v>-0.1209454654532199</v>
+        <v>0.09987999302327169</v>
       </c>
       <c r="D9">
-        <v>0.05456446278800607</v>
+        <v>-0.0407119463042637</v>
       </c>
       <c r="E9">
-        <v>0.002771440598334488</v>
+        <v>0.02202623152056924</v>
       </c>
       <c r="F9">
-        <v>-0.01349386949997227</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.02398043417346293</v>
+      </c>
+      <c r="G9">
+        <v>-0.02294373599640921</v>
+      </c>
+      <c r="H9">
+        <v>-0.03794135718632361</v>
+      </c>
+      <c r="I9">
+        <v>0.008846561792345522</v>
+      </c>
+      <c r="J9">
+        <v>0.102935622007974</v>
+      </c>
+      <c r="K9">
+        <v>-0.01216871454300251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.254638373841274</v>
+        <v>0.2426454794009818</v>
       </c>
       <c r="C10">
-        <v>0.07926872839630594</v>
+        <v>-0.1025627944022766</v>
       </c>
       <c r="D10">
-        <v>-0.02872275844472537</v>
+        <v>0.007400619092688768</v>
       </c>
       <c r="E10">
-        <v>0.02297625644535774</v>
+        <v>-0.0496962897953681</v>
       </c>
       <c r="F10">
-        <v>-0.03731409988520766</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.001584926427628121</v>
+      </c>
+      <c r="G10">
+        <v>-0.02059101764121764</v>
+      </c>
+      <c r="H10">
+        <v>-0.03840019874823553</v>
+      </c>
+      <c r="I10">
+        <v>-0.04234348408876846</v>
+      </c>
+      <c r="J10">
+        <v>0.02183832873564901</v>
+      </c>
+      <c r="K10">
+        <v>0.1460598864485697</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.007390628190514268</v>
+        <v>0.01848495784648001</v>
       </c>
       <c r="C11">
-        <v>-0.06663651622253741</v>
+        <v>0.07851945193550278</v>
       </c>
       <c r="D11">
-        <v>0.03383838152109535</v>
+        <v>-0.04099433010436049</v>
       </c>
       <c r="E11">
-        <v>0.03404926557060498</v>
+        <v>0.01196946448087701</v>
       </c>
       <c r="F11">
-        <v>-0.008388785122865691</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.003278876006094688</v>
+      </c>
+      <c r="G11">
+        <v>0.0108304354041547</v>
+      </c>
+      <c r="H11">
+        <v>-0.01887427330908687</v>
+      </c>
+      <c r="I11">
+        <v>0.004431051456087796</v>
+      </c>
+      <c r="J11">
+        <v>0.02670928818599602</v>
+      </c>
+      <c r="K11">
+        <v>-0.02692455595574318</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.007512480788084048</v>
+        <v>0.01771588853431949</v>
       </c>
       <c r="C12">
-        <v>-0.04688655526846363</v>
+        <v>0.05246851752731213</v>
       </c>
       <c r="D12">
-        <v>0.03680899882303109</v>
+        <v>-0.02611018374060221</v>
       </c>
       <c r="E12">
-        <v>0.02872823102509431</v>
+        <v>0.006995535065333426</v>
       </c>
       <c r="F12">
-        <v>0.01541834669297145</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.01794964293695278</v>
+      </c>
+      <c r="G12">
+        <v>-0.001117761670749848</v>
+      </c>
+      <c r="H12">
+        <v>-0.02014034138594488</v>
+      </c>
+      <c r="I12">
+        <v>-0.01734375288155376</v>
+      </c>
+      <c r="J12">
+        <v>0.02667632547678118</v>
+      </c>
+      <c r="K12">
+        <v>-0.01087961207702005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.007775608675025308</v>
+        <v>0.007431717548927881</v>
       </c>
       <c r="C13">
-        <v>-0.1139309681077159</v>
+        <v>0.1079772335359317</v>
       </c>
       <c r="D13">
-        <v>0.04935027629593881</v>
+        <v>-0.04292311940348342</v>
       </c>
       <c r="E13">
-        <v>-0.07021168394307728</v>
+        <v>0.001224950629975851</v>
       </c>
       <c r="F13">
-        <v>0.08468768895379307</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.03392513372624211</v>
+      </c>
+      <c r="G13">
+        <v>-0.1590625897304509</v>
+      </c>
+      <c r="H13">
+        <v>0.04240050930790376</v>
+      </c>
+      <c r="I13">
+        <v>-0.05248610018065687</v>
+      </c>
+      <c r="J13">
+        <v>0.2316336446818875</v>
+      </c>
+      <c r="K13">
+        <v>0.1713997096710164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.0140243449665538</v>
+        <v>0.02194433331225694</v>
       </c>
       <c r="C14">
-        <v>-0.08436846243456546</v>
+        <v>0.07318823057744941</v>
       </c>
       <c r="D14">
-        <v>0.05246405485282756</v>
+        <v>-0.04622832063976689</v>
       </c>
       <c r="E14">
-        <v>5.285361129828515e-05</v>
+        <v>-0.015264590477188</v>
       </c>
       <c r="F14">
-        <v>0.04355481774016422</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.03589194698577355</v>
+      </c>
+      <c r="G14">
+        <v>-0.02621453183209986</v>
+      </c>
+      <c r="H14">
+        <v>-0.08665709944111794</v>
+      </c>
+      <c r="I14">
+        <v>-0.06617997780065905</v>
+      </c>
+      <c r="J14">
+        <v>0.1883035943165371</v>
+      </c>
+      <c r="K14">
+        <v>-0.02709722071888139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.004104651247364577</v>
+        <v>0.003729927303796112</v>
       </c>
       <c r="C15">
-        <v>-0.0786312085555661</v>
+        <v>0.07088295796392347</v>
       </c>
       <c r="D15">
-        <v>0.02675098295884903</v>
+        <v>-0.03230811055281933</v>
       </c>
       <c r="E15">
-        <v>-0.01661873365680883</v>
+        <v>0.006225287134631267</v>
       </c>
       <c r="F15">
-        <v>-0.003462146334509893</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>0.03560751953292866</v>
+      </c>
+      <c r="G15">
+        <v>-0.01625614770772832</v>
+      </c>
+      <c r="H15">
+        <v>-0.04868574745540703</v>
+      </c>
+      <c r="I15">
+        <v>-0.02105691751568839</v>
+      </c>
+      <c r="J15">
+        <v>0.0689177819920624</v>
+      </c>
+      <c r="K15">
+        <v>-0.02411199364662099</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.008631987465498456</v>
+        <v>0.01715306393258927</v>
       </c>
       <c r="C16">
-        <v>-0.0544766380580631</v>
+        <v>0.05981184966837739</v>
       </c>
       <c r="D16">
-        <v>0.02752888497992541</v>
+        <v>-0.02663831984430311</v>
       </c>
       <c r="E16">
-        <v>0.02268492512651525</v>
+        <v>0.006360429901246549</v>
       </c>
       <c r="F16">
-        <v>0.001198758362163743</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-5.656372019390045e-05</v>
+      </c>
+      <c r="G16">
+        <v>0.006137878962683471</v>
+      </c>
+      <c r="H16">
+        <v>-0.009525146946739669</v>
+      </c>
+      <c r="I16">
+        <v>-0.003527112048581643</v>
+      </c>
+      <c r="J16">
+        <v>0.0227440533780621</v>
+      </c>
+      <c r="K16">
+        <v>-0.01975696198710451</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1292,25 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,10 +1327,25 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1077,150 +1362,270 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.0117712450455011</v>
+        <v>0.01646051261218173</v>
       </c>
       <c r="C20">
-        <v>-0.09665201042084648</v>
+        <v>0.08442068293433559</v>
       </c>
       <c r="D20">
-        <v>0.04176380299709228</v>
+        <v>-0.02699441233941281</v>
       </c>
       <c r="E20">
-        <v>0.05375807280181451</v>
+        <v>-0.002848717247507483</v>
       </c>
       <c r="F20">
-        <v>0.001355069692188046</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.01474484651527327</v>
+      </c>
+      <c r="G20">
+        <v>0.01937759727489624</v>
+      </c>
+      <c r="H20">
+        <v>-0.0504626646596909</v>
+      </c>
+      <c r="I20">
+        <v>-0.02303371300761686</v>
+      </c>
+      <c r="J20">
+        <v>0.05788701296732398</v>
+      </c>
+      <c r="K20">
+        <v>-0.0139595303856606</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.008200728963848635</v>
+        <v>0.01430027310182093</v>
       </c>
       <c r="C21">
-        <v>-0.07763912511355658</v>
+        <v>0.06880895771084891</v>
       </c>
       <c r="D21">
-        <v>0.003260689729568019</v>
+        <v>-0.01687969617339976</v>
       </c>
       <c r="E21">
-        <v>-0.02367571312707959</v>
+        <v>-0.02400498577107896</v>
       </c>
       <c r="F21">
-        <v>0.1011284744656472</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.06962234867907538</v>
+      </c>
+      <c r="G21">
+        <v>-0.06335675261572096</v>
+      </c>
+      <c r="H21">
+        <v>-0.05810905186405199</v>
+      </c>
+      <c r="I21">
+        <v>0.0008105345250812623</v>
+      </c>
+      <c r="J21">
+        <v>0.1271096269344693</v>
+      </c>
+      <c r="K21">
+        <v>0.009686829062441978</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>0.00232767110639119</v>
+        <v>0.009102640612344401</v>
       </c>
       <c r="C22">
-        <v>-0.2571380911356524</v>
+        <v>0.1674641770116587</v>
       </c>
       <c r="D22">
-        <v>-0.091670256556885</v>
+        <v>-0.01787387585955893</v>
       </c>
       <c r="E22">
-        <v>-0.3646258449475724</v>
+        <v>-0.008283455896770842</v>
       </c>
       <c r="F22">
-        <v>-0.246151557899489</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>0.3409195989162289</v>
+      </c>
+      <c r="G22">
+        <v>-0.3877598505777808</v>
+      </c>
+      <c r="H22">
+        <v>0.2651267919454899</v>
+      </c>
+      <c r="I22">
+        <v>-0.003284142290433358</v>
+      </c>
+      <c r="J22">
+        <v>-0.2309764651373641</v>
+      </c>
+      <c r="K22">
+        <v>-0.02820431253159304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>0.00143244723363743</v>
+        <v>0.01425169976782141</v>
       </c>
       <c r="C23">
-        <v>-0.2604391786016221</v>
+        <v>0.1705952135604187</v>
       </c>
       <c r="D23">
-        <v>-0.09653156947284655</v>
+        <v>-0.01764956646352832</v>
       </c>
       <c r="E23">
-        <v>-0.3585653846570123</v>
+        <v>-0.00521297212341126</v>
       </c>
       <c r="F23">
-        <v>-0.2432559659747068</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>0.3306193998928687</v>
+      </c>
+      <c r="G23">
+        <v>-0.3777621278614787</v>
+      </c>
+      <c r="H23">
+        <v>0.2511341437558074</v>
+      </c>
+      <c r="I23">
+        <v>-0.00121369295430245</v>
+      </c>
+      <c r="J23">
+        <v>-0.2126850200688346</v>
+      </c>
+      <c r="K23">
+        <v>-0.03254540933102738</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.006421229995760138</v>
+        <v>0.01789138498379586</v>
       </c>
       <c r="C24">
-        <v>-0.06044631101233744</v>
+        <v>0.06380890046960602</v>
       </c>
       <c r="D24">
-        <v>0.04590321763672726</v>
+        <v>-0.04066052810468279</v>
       </c>
       <c r="E24">
-        <v>0.02772051758827291</v>
+        <v>0.01091460804035355</v>
       </c>
       <c r="F24">
-        <v>-0.002816839648302497</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.001483625211695227</v>
+      </c>
+      <c r="G24">
+        <v>0.006860548801507735</v>
+      </c>
+      <c r="H24">
+        <v>-0.01800442700922929</v>
+      </c>
+      <c r="I24">
+        <v>-0.009436174461788203</v>
+      </c>
+      <c r="J24">
+        <v>0.03966532872474517</v>
+      </c>
+      <c r="K24">
+        <v>-0.02073355337406706</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.007682417392920243</v>
+        <v>0.02265024907390543</v>
       </c>
       <c r="C25">
-        <v>-0.06429917636029259</v>
+        <v>0.06776615887444516</v>
       </c>
       <c r="D25">
-        <v>0.02426899627596469</v>
+        <v>-0.03386637701949605</v>
       </c>
       <c r="E25">
-        <v>0.03070109880793774</v>
+        <v>0.01653157516934477</v>
       </c>
       <c r="F25">
-        <v>0.004542308305806683</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.004541539283622758</v>
+      </c>
+      <c r="G25">
+        <v>0.005031661917576201</v>
+      </c>
+      <c r="H25">
+        <v>-0.01807272919820034</v>
+      </c>
+      <c r="I25">
+        <v>-0.0004213292280629467</v>
+      </c>
+      <c r="J25">
+        <v>0.03603630355992232</v>
+      </c>
+      <c r="K25">
+        <v>-0.01168920462132714</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.01232668541045969</v>
+        <v>0.02320176392993961</v>
       </c>
       <c r="C26">
-        <v>-0.04789631946773221</v>
+        <v>0.0534658956453431</v>
       </c>
       <c r="D26">
-        <v>0.08295052252150706</v>
+        <v>-0.06191255879080035</v>
       </c>
       <c r="E26">
-        <v>0.02263421565706681</v>
+        <v>0.007213352262979811</v>
       </c>
       <c r="F26">
-        <v>0.03059369271242321</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.00534128374112088</v>
+      </c>
+      <c r="G26">
+        <v>0.012042845357332</v>
+      </c>
+      <c r="H26">
+        <v>-0.03854018067828911</v>
+      </c>
+      <c r="I26">
+        <v>0.03039316368423505</v>
+      </c>
+      <c r="J26">
+        <v>0.1147415203410419</v>
+      </c>
+      <c r="K26">
+        <v>-0.0643991190945544</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1237,190 +1642,340 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.3438065664501838</v>
+        <v>0.3038077286088849</v>
       </c>
       <c r="C28">
-        <v>0.09989433771956679</v>
+        <v>-0.126776765865784</v>
       </c>
       <c r="D28">
-        <v>-0.0305752860412285</v>
+        <v>0.03289908089122641</v>
       </c>
       <c r="E28">
-        <v>-0.0001468826977408628</v>
+        <v>-0.007556883667611071</v>
       </c>
       <c r="F28">
-        <v>-0.03248345010117166</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.0156490178132127</v>
+      </c>
+      <c r="G28">
+        <v>-0.0498035375341437</v>
+      </c>
+      <c r="H28">
+        <v>-0.02983838568587443</v>
+      </c>
+      <c r="I28">
+        <v>0.1010633514111921</v>
+      </c>
+      <c r="J28">
+        <v>0.02270789674639225</v>
+      </c>
+      <c r="K28">
+        <v>0.2068893180742819</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.007665975171582686</v>
+        <v>0.01837514216372149</v>
       </c>
       <c r="C29">
-        <v>-0.08023562498386284</v>
+        <v>0.08265826600908699</v>
       </c>
       <c r="D29">
-        <v>0.05752266157437666</v>
+        <v>-0.04795468028775714</v>
       </c>
       <c r="E29">
-        <v>0.01792222474261657</v>
+        <v>0.01109297487338098</v>
       </c>
       <c r="F29">
-        <v>0.03742712996637496</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.03971072492614953</v>
+      </c>
+      <c r="G29">
+        <v>-0.02442269259105118</v>
+      </c>
+      <c r="H29">
+        <v>-0.1149473724326931</v>
+      </c>
+      <c r="I29">
+        <v>-0.1167884729732825</v>
+      </c>
+      <c r="J29">
+        <v>0.2668501946856772</v>
+      </c>
+      <c r="K29">
+        <v>-0.01725837791925982</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.0237976705831839</v>
+        <v>0.03867489715786447</v>
       </c>
       <c r="C30">
-        <v>-0.1648056781969311</v>
+        <v>0.1455770363702797</v>
       </c>
       <c r="D30">
-        <v>0.0612547938143112</v>
+        <v>-0.05320639160458732</v>
       </c>
       <c r="E30">
-        <v>-0.03576568098234932</v>
+        <v>0.001298812644174344</v>
       </c>
       <c r="F30">
-        <v>-0.02024861574747642</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.04063913990394595</v>
+      </c>
+      <c r="G30">
+        <v>-0.03558726107662812</v>
+      </c>
+      <c r="H30">
+        <v>-0.04149359015959384</v>
+      </c>
+      <c r="I30">
+        <v>-0.02922442388742213</v>
+      </c>
+      <c r="J30">
+        <v>0.03028921876549993</v>
+      </c>
+      <c r="K30">
+        <v>-0.05805880806122666</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>0.002451279484435559</v>
+        <v>0.01590730313274115</v>
       </c>
       <c r="C31">
-        <v>-0.05651417441791212</v>
+        <v>0.0759339913309184</v>
       </c>
       <c r="D31">
-        <v>0.03605293326081035</v>
+        <v>-0.0425093926085511</v>
       </c>
       <c r="E31">
-        <v>0.01009795824374642</v>
+        <v>6.768851098456909e-05</v>
       </c>
       <c r="F31">
-        <v>0.001524336108783579</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.009983158735569082</v>
+      </c>
+      <c r="G31">
+        <v>-0.006399471101915921</v>
+      </c>
+      <c r="H31">
+        <v>-0.02927506635893575</v>
+      </c>
+      <c r="I31">
+        <v>0.02467089762796347</v>
+      </c>
+      <c r="J31">
+        <v>0.03173178585689608</v>
+      </c>
+      <c r="K31">
+        <v>-0.01179164202777788</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.01173808072124907</v>
+        <v>0.022346339324335</v>
       </c>
       <c r="C32">
-        <v>-0.08041692218319547</v>
+        <v>0.0508178417115204</v>
       </c>
       <c r="D32">
-        <v>0.01245992569786041</v>
+        <v>-0.02878108859989612</v>
       </c>
       <c r="E32">
-        <v>-0.164793769376912</v>
+        <v>0.00907822615024753</v>
       </c>
       <c r="F32">
-        <v>0.0164622479592676</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.002304376573800692</v>
+      </c>
+      <c r="G32">
+        <v>-0.1081535148787</v>
+      </c>
+      <c r="H32">
+        <v>-0.01891139427149412</v>
+      </c>
+      <c r="I32">
+        <v>-0.02848847622030687</v>
+      </c>
+      <c r="J32">
+        <v>0.1803458742624908</v>
+      </c>
+      <c r="K32">
+        <v>0.2172132401799013</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.009932824792496422</v>
+        <v>0.01805805820957854</v>
       </c>
       <c r="C33">
-        <v>-0.09423422021346167</v>
+        <v>0.1003945247089914</v>
       </c>
       <c r="D33">
-        <v>0.06051846134921482</v>
+        <v>-0.05069441797960312</v>
       </c>
       <c r="E33">
-        <v>0.01995913569187925</v>
+        <v>-0.002072095091369595</v>
       </c>
       <c r="F33">
-        <v>0.003577027515590687</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.01955915881201126</v>
+      </c>
+      <c r="G33">
+        <v>-0.01349118417843362</v>
+      </c>
+      <c r="H33">
+        <v>-0.01925591812201177</v>
+      </c>
+      <c r="I33">
+        <v>-0.02064975616454152</v>
+      </c>
+      <c r="J33">
+        <v>0.0621529428783379</v>
+      </c>
+      <c r="K33">
+        <v>0.01798860841620516</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.005159843895351798</v>
+        <v>0.01797200120742507</v>
       </c>
       <c r="C34">
-        <v>-0.04745267041607808</v>
+        <v>0.0495926271549496</v>
       </c>
       <c r="D34">
-        <v>0.02383831610175488</v>
+        <v>-0.02149341309098854</v>
       </c>
       <c r="E34">
-        <v>0.01518233732545056</v>
+        <v>0.01537477673489597</v>
       </c>
       <c r="F34">
-        <v>0.02207247617640444</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.006183104668975844</v>
+      </c>
+      <c r="G34">
+        <v>0.006319907631476569</v>
+      </c>
+      <c r="H34">
+        <v>-0.02273211275943747</v>
+      </c>
+      <c r="I34">
+        <v>-0.02194820871971975</v>
+      </c>
+      <c r="J34">
+        <v>-0.001904908888700426</v>
+      </c>
+      <c r="K34">
+        <v>-0.01049465103302165</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.002788953480754869</v>
+        <v>0.0123921295291934</v>
       </c>
       <c r="C35">
-        <v>-0.03077741763730413</v>
+        <v>0.04948968885748301</v>
       </c>
       <c r="D35">
-        <v>0.0146093848300922</v>
+        <v>-0.02302843651027359</v>
       </c>
       <c r="E35">
-        <v>0.006678648543044989</v>
+        <v>-0.003556170254579091</v>
       </c>
       <c r="F35">
-        <v>0.01150040424786032</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>-0.003824926279157646</v>
+      </c>
+      <c r="G35">
+        <v>-0.0115487634563606</v>
+      </c>
+      <c r="H35">
+        <v>-0.08061088051140193</v>
+      </c>
+      <c r="I35">
+        <v>-0.04201277358236467</v>
+      </c>
+      <c r="J35">
+        <v>0.1313753312659914</v>
+      </c>
+      <c r="K35">
+        <v>-3.797056422188217e-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.008454748795903123</v>
+        <v>0.0143873365484319</v>
       </c>
       <c r="C36">
-        <v>-0.0478662404106564</v>
+        <v>0.04591091602847411</v>
       </c>
       <c r="D36">
-        <v>0.05267086252129453</v>
+        <v>-0.04017311441361959</v>
       </c>
       <c r="E36">
-        <v>0.01649901726803683</v>
+        <v>-0.008115033283461838</v>
       </c>
       <c r="F36">
-        <v>0.007761623535104678</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.01039332418467942</v>
+      </c>
+      <c r="G36">
+        <v>-0.01203513045759732</v>
+      </c>
+      <c r="H36">
+        <v>-0.02672593407142303</v>
+      </c>
+      <c r="I36">
+        <v>0.02052241645796872</v>
+      </c>
+      <c r="J36">
+        <v>0.08644813795814689</v>
+      </c>
+      <c r="K36">
+        <v>-0.01951441673014751</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,90 +1992,165 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.02726366346171078</v>
+        <v>0.01171442301015206</v>
       </c>
       <c r="C38">
-        <v>-0.04441997333451154</v>
+        <v>0.05794725454915147</v>
       </c>
       <c r="D38">
-        <v>0.03328730501974991</v>
+        <v>-0.03723308729709628</v>
       </c>
       <c r="E38">
-        <v>0.02527787171879441</v>
+        <v>-0.03017072426326845</v>
       </c>
       <c r="F38">
-        <v>-0.0006901033615727023</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.03506995512718646</v>
+      </c>
+      <c r="G38">
+        <v>0.001052557752696972</v>
+      </c>
+      <c r="H38">
+        <v>-0.03563333061338542</v>
+      </c>
+      <c r="I38">
+        <v>-0.02048591740492454</v>
+      </c>
+      <c r="J38">
+        <v>0.07966173949986402</v>
+      </c>
+      <c r="K38">
+        <v>0.06430275200836731</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.005234342960679094</v>
+        <v>0.02656695280441302</v>
       </c>
       <c r="C39">
-        <v>-0.1227875874614051</v>
+        <v>0.1292286930132165</v>
       </c>
       <c r="D39">
-        <v>0.06094863195344594</v>
+        <v>-0.05848183060388186</v>
       </c>
       <c r="E39">
-        <v>0.02005425761903978</v>
+        <v>-0.0005947149592320593</v>
       </c>
       <c r="F39">
-        <v>0.02394464150657977</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.0116187672376653</v>
+      </c>
+      <c r="G39">
+        <v>0.004184765217420628</v>
+      </c>
+      <c r="H39">
+        <v>-0.04404142931945596</v>
+      </c>
+      <c r="I39">
+        <v>-0.04216762185069504</v>
+      </c>
+      <c r="J39">
+        <v>0.02384627310150105</v>
+      </c>
+      <c r="K39">
+        <v>-0.09362130877494471</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.01664146129861555</v>
+        <v>0.02393634326995633</v>
       </c>
       <c r="C40">
-        <v>-0.05149934696681155</v>
+        <v>0.07850722767356681</v>
       </c>
       <c r="D40">
-        <v>0.02108060767982648</v>
+        <v>-0.03805656049480157</v>
       </c>
       <c r="E40">
-        <v>-0.02824656386188983</v>
+        <v>0.01114401865432317</v>
       </c>
       <c r="F40">
-        <v>-0.02797778309783537</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.005862396345306032</v>
+      </c>
+      <c r="G40">
+        <v>-0.02516837638013945</v>
+      </c>
+      <c r="H40">
+        <v>-0.0151051772420664</v>
+      </c>
+      <c r="I40">
+        <v>-0.1077255190808166</v>
+      </c>
+      <c r="J40">
+        <v>0.08620349842033589</v>
+      </c>
+      <c r="K40">
+        <v>0.01956577117228252</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.01202984337709503</v>
+        <v>0.02287806206629429</v>
       </c>
       <c r="C41">
-        <v>-0.0249264179576483</v>
+        <v>0.04569479249489769</v>
       </c>
       <c r="D41">
-        <v>0.00441781224599897</v>
+        <v>-0.01508502977970847</v>
       </c>
       <c r="E41">
-        <v>0.0149333330230209</v>
+        <v>-0.0006542198808524252</v>
       </c>
       <c r="F41">
-        <v>0.001633465777824023</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.004997023696455442</v>
+      </c>
+      <c r="G41">
+        <v>0.01097116699989048</v>
+      </c>
+      <c r="H41">
+        <v>-0.004261517526172851</v>
+      </c>
+      <c r="I41">
+        <v>0.008513195496848909</v>
+      </c>
+      <c r="J41">
+        <v>0.02935089688087751</v>
+      </c>
+      <c r="K41">
+        <v>0.02688734628991308</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1537,50 +2167,95 @@
       <c r="F42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.006545915300007896</v>
+        <v>0.0205201114784778</v>
       </c>
       <c r="C43">
-        <v>-0.0263576197489293</v>
+        <v>0.04612089063429389</v>
       </c>
       <c r="D43">
-        <v>0.02379439393610309</v>
+        <v>-0.0271666176342753</v>
       </c>
       <c r="E43">
-        <v>0.007442610365291035</v>
+        <v>-0.0007881137138649763</v>
       </c>
       <c r="F43">
-        <v>-0.004094364269088549</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.00835083954421843</v>
+      </c>
+      <c r="G43">
+        <v>0.009256284922766958</v>
+      </c>
+      <c r="H43">
+        <v>-0.01442901602117718</v>
+      </c>
+      <c r="I43">
+        <v>0.001898658748118968</v>
+      </c>
+      <c r="J43">
+        <v>0.03914264347362508</v>
+      </c>
+      <c r="K43">
+        <v>-0.0003035608645790772</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>-0.01008597685469041</v>
+        <v>0.01917352789062518</v>
       </c>
       <c r="C44">
-        <v>-0.1094506789018626</v>
+        <v>0.09942965912311405</v>
       </c>
       <c r="D44">
-        <v>0.0438683301284454</v>
+        <v>-0.06273065984927306</v>
       </c>
       <c r="E44">
-        <v>-0.03956369498972801</v>
+        <v>-0.01495632609100269</v>
       </c>
       <c r="F44">
-        <v>-0.03893977400489172</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.05533753256297116</v>
+      </c>
+      <c r="G44">
+        <v>-0.03944004361500152</v>
+      </c>
+      <c r="H44">
+        <v>-0.006543583147157864</v>
+      </c>
+      <c r="I44">
+        <v>-0.04249220783389151</v>
+      </c>
+      <c r="J44">
+        <v>0.05553002767943116</v>
+      </c>
+      <c r="K44">
+        <v>-0.06934164449603501</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,130 +2272,235 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>0.00473993498312233</v>
+        <v>0.006945301125653289</v>
       </c>
       <c r="C46">
-        <v>-0.072363498780474</v>
+        <v>0.06897747829383233</v>
       </c>
       <c r="D46">
-        <v>0.06516665184107706</v>
+        <v>-0.0268117107834609</v>
       </c>
       <c r="E46">
-        <v>0.0002634217562148737</v>
+        <v>-0.01993797381340948</v>
       </c>
       <c r="F46">
-        <v>0.0204078966454239</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.01794356499812321</v>
+      </c>
+      <c r="G46">
+        <v>0.003547946930335245</v>
+      </c>
+      <c r="H46">
+        <v>-0.01553688070724423</v>
+      </c>
+      <c r="I46">
+        <v>-0.007216956730311623</v>
+      </c>
+      <c r="J46">
+        <v>0.1002933343900598</v>
+      </c>
+      <c r="K46">
+        <v>-0.01752496459635956</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.009080292277445799</v>
+        <v>0.02143533686499664</v>
       </c>
       <c r="C47">
-        <v>-0.05882031163641772</v>
+        <v>0.06895681078768809</v>
       </c>
       <c r="D47">
-        <v>0.04527772722552065</v>
+        <v>-0.04649869778976314</v>
       </c>
       <c r="E47">
-        <v>0.03486752252181218</v>
+        <v>0.009588002907696163</v>
       </c>
       <c r="F47">
-        <v>0.0385229217692585</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.004808580682880463</v>
+      </c>
+      <c r="G47">
+        <v>0.004285946399978095</v>
+      </c>
+      <c r="H47">
+        <v>-0.02441142635702764</v>
+      </c>
+      <c r="I47">
+        <v>0.008397930412001188</v>
+      </c>
+      <c r="J47">
+        <v>0.06873665653036216</v>
+      </c>
+      <c r="K47">
+        <v>0.01957836661375805</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.01100218003533358</v>
+        <v>0.01771021172725069</v>
       </c>
       <c r="C48">
-        <v>-0.05312905551856904</v>
+        <v>0.04713494949295668</v>
       </c>
       <c r="D48">
-        <v>0.0675062201696891</v>
+        <v>-0.05322888191925887</v>
       </c>
       <c r="E48">
-        <v>0.02922082247922199</v>
+        <v>0.01514832926015885</v>
       </c>
       <c r="F48">
-        <v>0.00532061341197566</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.02064938433952267</v>
+      </c>
+      <c r="G48">
+        <v>-0.005134827680286802</v>
+      </c>
+      <c r="H48">
+        <v>-0.04041222353512108</v>
+      </c>
+      <c r="I48">
+        <v>0.03590858879036992</v>
+      </c>
+      <c r="J48">
+        <v>0.1144912330220908</v>
+      </c>
+      <c r="K48">
+        <v>-0.04539817229870864</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.02637467301938518</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.05785555378441617</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-0.0175150500854456</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.04138235802485219</v>
       </c>
       <c r="F49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>-0.03088084435430315</v>
+      </c>
+      <c r="G49">
+        <v>0.0660182618062623</v>
+      </c>
+      <c r="H49">
+        <v>-0.0586230370881017</v>
+      </c>
+      <c r="I49">
+        <v>-0.09164859951731093</v>
+      </c>
+      <c r="J49">
+        <v>-0.09924196178340595</v>
+      </c>
+      <c r="K49">
+        <v>-0.05629622770353186</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>0.003023043050240525</v>
+        <v>0.01601247555683745</v>
       </c>
       <c r="C50">
-        <v>-0.05978619617549059</v>
+        <v>0.0734126903810519</v>
       </c>
       <c r="D50">
-        <v>0.0376200843764863</v>
+        <v>-0.03255853700947798</v>
       </c>
       <c r="E50">
-        <v>-0.003757146576332245</v>
+        <v>0.006683000854628507</v>
       </c>
       <c r="F50">
-        <v>-0.005259012387397377</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.0191484279671302</v>
+      </c>
+      <c r="G50">
+        <v>-0.008009890552816404</v>
+      </c>
+      <c r="H50">
+        <v>-0.04092098480153603</v>
+      </c>
+      <c r="I50">
+        <v>0.001859169752516005</v>
+      </c>
+      <c r="J50">
+        <v>0.05206130118868341</v>
+      </c>
+      <c r="K50">
+        <v>0.04581898621689735</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.002736227221202062</v>
+        <v>-0.004940522922987954</v>
       </c>
       <c r="C51">
-        <v>-0.07425169893286146</v>
+        <v>0.03553804434549455</v>
       </c>
       <c r="D51">
-        <v>0.03816848020880433</v>
+        <v>-0.02391603639993634</v>
       </c>
       <c r="E51">
-        <v>-0.03157944873458707</v>
+        <v>-0.02267601262219806</v>
       </c>
       <c r="F51">
-        <v>-0.008929873244917712</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.007810461595373097</v>
+      </c>
+      <c r="G51">
+        <v>-0.02377580487540815</v>
+      </c>
+      <c r="H51">
+        <v>-0.02435819686053345</v>
+      </c>
+      <c r="I51">
+        <v>-0.009693890727296296</v>
+      </c>
+      <c r="J51">
+        <v>0.1054261528458103</v>
+      </c>
+      <c r="K51">
+        <v>-0.0201482234487641</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,90 +2517,165 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.03148375965917043</v>
+        <v>0.06341034641489247</v>
       </c>
       <c r="C53">
-        <v>-0.1051475306521801</v>
+        <v>0.1288884435543877</v>
       </c>
       <c r="D53">
-        <v>0.05868365474842056</v>
+        <v>-0.05834683808514862</v>
       </c>
       <c r="E53">
-        <v>0.0907122053159848</v>
+        <v>0.0154505579353392</v>
       </c>
       <c r="F53">
-        <v>0.001711512399581273</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.04610652525696549</v>
+      </c>
+      <c r="G53">
+        <v>0.04096414459064267</v>
+      </c>
+      <c r="H53">
+        <v>-0.006783440670023205</v>
+      </c>
+      <c r="I53">
+        <v>0.09441820167510652</v>
+      </c>
+      <c r="J53">
+        <v>-0.04908653785292859</v>
+      </c>
+      <c r="K53">
+        <v>0.02671001499624122</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>-0.006184490773953137</v>
+        <v>0.01746827273259233</v>
       </c>
       <c r="C54">
-        <v>-0.07331016729359484</v>
+        <v>0.07043570752188689</v>
       </c>
       <c r="D54">
-        <v>0.0209068850879568</v>
+        <v>-0.01089005198149829</v>
       </c>
       <c r="E54">
-        <v>0.04046361608620441</v>
+        <v>0.004348856977513176</v>
       </c>
       <c r="F54">
-        <v>-0.004172895705277017</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.0006020350349884151</v>
+      </c>
+      <c r="G54">
+        <v>0.002213420580139785</v>
+      </c>
+      <c r="H54">
+        <v>-0.0143156926007878</v>
+      </c>
+      <c r="I54">
+        <v>-0.0004928803617349278</v>
+      </c>
+      <c r="J54">
+        <v>0.06079151076328747</v>
+      </c>
+      <c r="K54">
+        <v>-0.02972308701894204</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>-0.01520137107958554</v>
+        <v>0.03217907134006172</v>
       </c>
       <c r="C55">
-        <v>-0.05624040747958099</v>
+        <v>0.08036960950135152</v>
       </c>
       <c r="D55">
-        <v>0.05781257067955448</v>
+        <v>-0.05355564021555997</v>
       </c>
       <c r="E55">
-        <v>0.06144242430410198</v>
+        <v>0.01714871659750843</v>
       </c>
       <c r="F55">
-        <v>0.02530174769482234</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.02696545411295141</v>
+      </c>
+      <c r="G55">
+        <v>0.03033808280950646</v>
+      </c>
+      <c r="H55">
+        <v>0.0007241110399579425</v>
+      </c>
+      <c r="I55">
+        <v>0.03963762390065423</v>
+      </c>
+      <c r="J55">
+        <v>-0.006581804836914566</v>
+      </c>
+      <c r="K55">
+        <v>-0.007355538045338702</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>-0.01372034807427622</v>
+        <v>0.05686164247063057</v>
       </c>
       <c r="C56">
-        <v>-0.1349607288014383</v>
+        <v>0.1579399980077997</v>
       </c>
       <c r="D56">
-        <v>0.0668496428859741</v>
+        <v>-0.08474672362542238</v>
       </c>
       <c r="E56">
-        <v>0.05807058965204067</v>
+        <v>0.03334158577529437</v>
       </c>
       <c r="F56">
-        <v>0.0200029556133229</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.09428763702898493</v>
+      </c>
+      <c r="G56">
+        <v>0.05902708192147989</v>
+      </c>
+      <c r="H56">
+        <v>-0.0177516099550977</v>
+      </c>
+      <c r="I56">
+        <v>0.1755190824968029</v>
+      </c>
+      <c r="J56">
+        <v>-0.08856522673501439</v>
+      </c>
+      <c r="K56">
+        <v>-0.00345742379862098</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1837,250 +2692,445 @@
       <c r="F57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>-0.02195939368534729</v>
+        <v>0.01767796443991271</v>
       </c>
       <c r="C58">
-        <v>-0.2721180241508971</v>
+        <v>0.1660120423107405</v>
       </c>
       <c r="D58">
-        <v>-0.03057283548130261</v>
+        <v>-0.04077591189005077</v>
       </c>
       <c r="E58">
-        <v>-0.1923396588451051</v>
+        <v>-0.08289395120301749</v>
       </c>
       <c r="F58">
-        <v>-0.1599291776789342</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.209953236908726</v>
+      </c>
+      <c r="G58">
+        <v>-0.2712500559940956</v>
+      </c>
+      <c r="H58">
+        <v>0.005602096352897067</v>
+      </c>
+      <c r="I58">
+        <v>0.06350597140568091</v>
+      </c>
+      <c r="J58">
+        <v>0.1431439824840903</v>
+      </c>
+      <c r="K58">
+        <v>0.05457592889981809</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>-0.2917601531147705</v>
+        <v>0.2866727091549666</v>
       </c>
       <c r="C59">
-        <v>0.002810304849246179</v>
+        <v>-0.05947111083228157</v>
       </c>
       <c r="D59">
-        <v>-0.01593042374495802</v>
+        <v>0.009755523914875424</v>
       </c>
       <c r="E59">
-        <v>-0.05898395906750329</v>
+        <v>-0.008118697867395079</v>
       </c>
       <c r="F59">
-        <v>0.04661468590228603</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.01107968530920181</v>
+      </c>
+      <c r="G59">
+        <v>-0.06083956028163205</v>
+      </c>
+      <c r="H59">
+        <v>0.02291474207911045</v>
+      </c>
+      <c r="I59">
+        <v>0.004122848061816427</v>
+      </c>
+      <c r="J59">
+        <v>-0.006791157481083832</v>
+      </c>
+      <c r="K59">
+        <v>0.03600612934100196</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>-0.1272058902305977</v>
+        <v>0.1591097057108973</v>
       </c>
       <c r="C60">
-        <v>-0.1488180617930918</v>
+        <v>0.1607730445901547</v>
       </c>
       <c r="D60">
-        <v>0.07084297072407986</v>
+        <v>-0.03299827525610303</v>
       </c>
       <c r="E60">
-        <v>0.1459437752884713</v>
+        <v>0.07825495075351731</v>
       </c>
       <c r="F60">
-        <v>0.2222143971179676</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.1165214311493766</v>
+      </c>
+      <c r="G60">
+        <v>0.1089232535425407</v>
+      </c>
+      <c r="H60">
+        <v>0.2219733596514393</v>
+      </c>
+      <c r="I60">
+        <v>-0.2217050662093379</v>
+      </c>
+      <c r="J60">
+        <v>-0.1064861348181161</v>
+      </c>
+      <c r="K60">
+        <v>-0.04921978654456688</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.006804910092594314</v>
+        <v>0.02742295601353039</v>
       </c>
       <c r="C61">
-        <v>-0.08726747393459645</v>
+        <v>0.0998508236939871</v>
       </c>
       <c r="D61">
-        <v>0.07399769115704363</v>
+        <v>-0.05430040919093045</v>
       </c>
       <c r="E61">
-        <v>0.04316701494661156</v>
+        <v>0.01043027894532173</v>
       </c>
       <c r="F61">
-        <v>0.02937344748013122</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.01460357739097829</v>
+      </c>
+      <c r="G61">
+        <v>0.02293767554142435</v>
+      </c>
+      <c r="H61">
+        <v>-0.04923017631528573</v>
+      </c>
+      <c r="I61">
+        <v>-0.02230163956600531</v>
+      </c>
+      <c r="J61">
+        <v>0.02999177500837987</v>
+      </c>
+      <c r="K61">
+        <v>-0.03668065026467041</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.002040432268052549</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.01596579590729003</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-0.004947835511571065</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.02955954413780822</v>
       </c>
       <c r="F62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>0.02201740366984361</v>
+      </c>
+      <c r="G62">
+        <v>-0.007066827711254248</v>
+      </c>
+      <c r="H62">
+        <v>-0.0107378000064152</v>
+      </c>
+      <c r="I62">
+        <v>-0.02119555284014047</v>
+      </c>
+      <c r="J62">
+        <v>0.01653732265354482</v>
+      </c>
+      <c r="K62">
+        <v>0.00529117205661888</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.0009179654756914802</v>
+        <v>0.02741115457731044</v>
       </c>
       <c r="C63">
-        <v>-0.05315648861919851</v>
+        <v>0.06172019393909247</v>
       </c>
       <c r="D63">
-        <v>0.04585537383597896</v>
+        <v>-0.05968907637710848</v>
       </c>
       <c r="E63">
-        <v>0.01052000925580584</v>
+        <v>0.006096354940404177</v>
       </c>
       <c r="F63">
-        <v>-0.006357078523810477</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.007619310791365944</v>
+      </c>
+      <c r="G63">
+        <v>0.004908241372662562</v>
+      </c>
+      <c r="H63">
+        <v>-0.04426399053818671</v>
+      </c>
+      <c r="I63">
+        <v>0.004517594868196531</v>
+      </c>
+      <c r="J63">
+        <v>0.04787434338422701</v>
+      </c>
+      <c r="K63">
+        <v>-0.02140539406305032</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>0.002913372009351037</v>
+        <v>0.0159230311856874</v>
       </c>
       <c r="C64">
-        <v>-0.09160883588583817</v>
+        <v>0.08579504490856013</v>
       </c>
       <c r="D64">
-        <v>0.08237251017132295</v>
+        <v>-0.03072228733911362</v>
       </c>
       <c r="E64">
-        <v>0.04315292895440357</v>
+        <v>0.009354511573790022</v>
       </c>
       <c r="F64">
-        <v>-0.01239240746052668</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.03737541454713515</v>
+      </c>
+      <c r="G64">
+        <v>-0.006151392239714271</v>
+      </c>
+      <c r="H64">
+        <v>0.01432344865374656</v>
+      </c>
+      <c r="I64">
+        <v>-0.03919533903434057</v>
+      </c>
+      <c r="J64">
+        <v>0.04885171247566512</v>
+      </c>
+      <c r="K64">
+        <v>-0.07602849795939831</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.02328998683549668</v>
+        <v>0.03351017565086327</v>
       </c>
       <c r="C65">
-        <v>-0.1002819652989749</v>
+        <v>0.09081071628475441</v>
       </c>
       <c r="D65">
-        <v>0.05986891739832628</v>
+        <v>-0.02019744965595296</v>
       </c>
       <c r="E65">
-        <v>0.04532019497780883</v>
+        <v>-0.02080724159955475</v>
       </c>
       <c r="F65">
-        <v>0.01067421875375629</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.00396733860980477</v>
+      </c>
+      <c r="G65">
+        <v>0.01077454781026113</v>
+      </c>
+      <c r="H65">
+        <v>0.03082141478389337</v>
+      </c>
+      <c r="I65">
+        <v>-0.07851092572033382</v>
+      </c>
+      <c r="J65">
+        <v>0.01962927037473813</v>
+      </c>
+      <c r="K65">
+        <v>-0.08084620384389048</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>0.002337113510735464</v>
+        <v>0.02574521535962014</v>
       </c>
       <c r="C66">
-        <v>-0.1740800771130094</v>
+        <v>0.1730899076445611</v>
       </c>
       <c r="D66">
-        <v>0.04651533285891642</v>
+        <v>-0.0527877540174665</v>
       </c>
       <c r="E66">
-        <v>0.001059789221273376</v>
+        <v>-0.006853227046396305</v>
       </c>
       <c r="F66">
-        <v>0.0290364942937712</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.01192388294358156</v>
+      </c>
+      <c r="G66">
+        <v>-0.008869693761036985</v>
+      </c>
+      <c r="H66">
+        <v>-0.06031124434305615</v>
+      </c>
+      <c r="I66">
+        <v>-0.03126500673619443</v>
+      </c>
+      <c r="J66">
+        <v>0.02910065126114632</v>
+      </c>
+      <c r="K66">
+        <v>-0.06829719778611437</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>-0.03009835837045412</v>
+        <v>0.02141229930998088</v>
       </c>
       <c r="C67">
-        <v>-0.02001623333874838</v>
+        <v>0.05072606123938152</v>
       </c>
       <c r="D67">
-        <v>0.04853144267241237</v>
+        <v>-0.03821613095164952</v>
       </c>
       <c r="E67">
-        <v>0.05810846966784786</v>
+        <v>-0.02717992145587568</v>
       </c>
       <c r="F67">
-        <v>0.01668318947190573</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.01057158230411626</v>
+      </c>
+      <c r="G67">
+        <v>0.02762501313599821</v>
+      </c>
+      <c r="H67">
+        <v>-0.001616440319159452</v>
+      </c>
+      <c r="I67">
+        <v>-0.03891890227894582</v>
+      </c>
+      <c r="J67">
+        <v>0.0753467126909439</v>
+      </c>
+      <c r="K67">
+        <v>0.04684475692501843</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>-0.2972668315429339</v>
+        <v>0.2913643958429621</v>
       </c>
       <c r="C68">
-        <v>0.008721038631621299</v>
+        <v>-0.08505979303479697</v>
       </c>
       <c r="D68">
-        <v>0.008970367100213495</v>
+        <v>0.02697899622092977</v>
       </c>
       <c r="E68">
-        <v>-0.0364003290644291</v>
+        <v>0.01760782346305938</v>
       </c>
       <c r="F68">
-        <v>-0.01278983282919175</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.01699087415075837</v>
+      </c>
+      <c r="G68">
+        <v>-0.0353504876028815</v>
+      </c>
+      <c r="H68">
+        <v>-0.009615227778457126</v>
+      </c>
+      <c r="I68">
+        <v>0.02668394768837724</v>
+      </c>
+      <c r="J68">
+        <v>0.03445764835069409</v>
+      </c>
+      <c r="K68">
+        <v>0.04584887349274267</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>-0.01086038324618853</v>
+        <v>0.01068335142230788</v>
       </c>
       <c r="C69">
-        <v>-0.04860848639116298</v>
+        <v>0.0441650997992956</v>
       </c>
       <c r="D69">
-        <v>0.04504407743411197</v>
+        <v>-0.02581531745387809</v>
       </c>
       <c r="E69">
-        <v>0.03759966052078426</v>
+        <v>-0.007648451948560302</v>
       </c>
       <c r="F69">
-        <v>0.006661737073960058</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.00956681400924283</v>
+      </c>
+      <c r="G69">
+        <v>0.003277929120240588</v>
+      </c>
+      <c r="H69">
+        <v>0.004976724951173382</v>
+      </c>
+      <c r="I69">
+        <v>-0.01294278232559897</v>
+      </c>
+      <c r="J69">
+        <v>0.03915993638786816</v>
+      </c>
+      <c r="K69">
+        <v>0.02796942790675871</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,510 +3147,900 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>-0.2860152607311691</v>
+        <v>0.2729707157891409</v>
       </c>
       <c r="C71">
-        <v>0.03565787532753992</v>
+        <v>-0.08491322838765433</v>
       </c>
       <c r="D71">
-        <v>-0.0118213822185953</v>
+        <v>0.0210804690547574</v>
       </c>
       <c r="E71">
-        <v>-0.03569929351658314</v>
+        <v>-0.005478474089713361</v>
       </c>
       <c r="F71">
-        <v>-0.03436491981456023</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.04616997548480493</v>
+      </c>
+      <c r="G71">
+        <v>-0.04893573455559611</v>
+      </c>
+      <c r="H71">
+        <v>-0.0103026971281926</v>
+      </c>
+      <c r="I71">
+        <v>0.03062224088473766</v>
+      </c>
+      <c r="J71">
+        <v>0.05058816901878632</v>
+      </c>
+      <c r="K71">
+        <v>0.1184183866439923</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>-0.01993772073559393</v>
+        <v>0.05910818960303832</v>
       </c>
       <c r="C72">
-        <v>-0.1312161110839409</v>
+        <v>0.1341909830570859</v>
       </c>
       <c r="D72">
-        <v>0.07334907088680064</v>
+        <v>-0.0508103684462279</v>
       </c>
       <c r="E72">
-        <v>0.03881615363886252</v>
+        <v>0.03285797376358561</v>
       </c>
       <c r="F72">
-        <v>-0.02679091821859465</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.02143250161317294</v>
+      </c>
+      <c r="G72">
+        <v>0.02192975984560463</v>
+      </c>
+      <c r="H72">
+        <v>-0.02282197324920961</v>
+      </c>
+      <c r="I72">
+        <v>0.01226879565401858</v>
+      </c>
+      <c r="J72">
+        <v>0.04421448862721775</v>
+      </c>
+      <c r="K72">
+        <v>-0.1074088882254744</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>-0.09903892263214865</v>
+        <v>0.1605251435402582</v>
       </c>
       <c r="C73">
-        <v>-0.1126458422998168</v>
+        <v>0.1922917965045506</v>
       </c>
       <c r="D73">
-        <v>0.1136454563036114</v>
+        <v>-0.07204879282112446</v>
       </c>
       <c r="E73">
-        <v>0.2265615604680953</v>
+        <v>0.02917132610725973</v>
       </c>
       <c r="F73">
-        <v>0.2562791008053628</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.1423987265307278</v>
+      </c>
+      <c r="G73">
+        <v>0.2027925889004211</v>
+      </c>
+      <c r="H73">
+        <v>0.2985982846920756</v>
+      </c>
+      <c r="I73">
+        <v>-0.3748830974200956</v>
+      </c>
+      <c r="J73">
+        <v>-0.1219401081349549</v>
+      </c>
+      <c r="K73">
+        <v>0.1108054149447918</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>-0.01785550362511227</v>
+        <v>0.04168936862677312</v>
       </c>
       <c r="C74">
-        <v>-0.08115457598814917</v>
+        <v>0.09936423053182002</v>
       </c>
       <c r="D74">
-        <v>0.07368229708020348</v>
+        <v>-0.04473074426176089</v>
       </c>
       <c r="E74">
-        <v>0.05849754913782574</v>
+        <v>0.02032920702070238</v>
       </c>
       <c r="F74">
-        <v>0.01975774574073241</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.005138820858221843</v>
+      </c>
+      <c r="G74">
+        <v>0.0304072465307674</v>
+      </c>
+      <c r="H74">
+        <v>0.003716414007035612</v>
+      </c>
+      <c r="I74">
+        <v>0.06318190645259097</v>
+      </c>
+      <c r="J74">
+        <v>0.009615376353095615</v>
+      </c>
+      <c r="K74">
+        <v>-0.01604499581550109</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>-0.03235518066658143</v>
+        <v>0.06773569701538244</v>
       </c>
       <c r="C75">
-        <v>-0.137752358722752</v>
+        <v>0.1622622646681113</v>
       </c>
       <c r="D75">
-        <v>0.05483257228935511</v>
+        <v>-0.08842355517540632</v>
       </c>
       <c r="E75">
-        <v>0.1126323000682195</v>
+        <v>0.03376520285152972</v>
       </c>
       <c r="F75">
-        <v>-0.009810198749091906</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.02588128609798897</v>
+      </c>
+      <c r="G75">
+        <v>0.1034585979170223</v>
+      </c>
+      <c r="H75">
+        <v>-0.08068257243542637</v>
+      </c>
+      <c r="I75">
+        <v>0.200077898722619</v>
+      </c>
+      <c r="J75">
+        <v>-0.08063535985516614</v>
+      </c>
+      <c r="K75">
+        <v>0.1511349281155276</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>-0.009699911406413304</v>
+        <v>0.05074054784782901</v>
       </c>
       <c r="C76">
-        <v>-0.1008458508276882</v>
+        <v>0.1285909434666098</v>
       </c>
       <c r="D76">
-        <v>0.06496618741264279</v>
+        <v>-0.07694149625045406</v>
       </c>
       <c r="E76">
-        <v>0.08890574326488855</v>
+        <v>0.01652513829005846</v>
       </c>
       <c r="F76">
-        <v>0.02859584196085643</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.05310168106931715</v>
+      </c>
+      <c r="G76">
+        <v>0.0661345311314991</v>
+      </c>
+      <c r="H76">
+        <v>-0.04208173508239069</v>
+      </c>
+      <c r="I76">
+        <v>0.08252129721396159</v>
+      </c>
+      <c r="J76">
+        <v>-0.07034705935471156</v>
+      </c>
+      <c r="K76">
+        <v>-0.01855772883892237</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>-0.08418409415965533</v>
+        <v>0.05980937986942658</v>
       </c>
       <c r="C77">
-        <v>-0.3310966489866926</v>
+        <v>0.391807946069967</v>
       </c>
       <c r="D77">
-        <v>-0.8552318023427131</v>
+        <v>0.9021535344682685</v>
       </c>
       <c r="E77">
-        <v>0.3089850592631943</v>
+        <v>0.03598081541587352</v>
       </c>
       <c r="F77">
-        <v>0.07033716708857925</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.003296868697442657</v>
+      </c>
+      <c r="G77">
+        <v>0.06423865006014874</v>
+      </c>
+      <c r="H77">
+        <v>-0.09961262256657304</v>
+      </c>
+      <c r="I77">
+        <v>0.02230622827135941</v>
+      </c>
+      <c r="J77">
+        <v>0.01016837344845434</v>
+      </c>
+      <c r="K77">
+        <v>0.02981979876472216</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>-0.02230465836307186</v>
+        <v>0.03842920898470749</v>
       </c>
       <c r="C78">
-        <v>-0.1360084724818056</v>
+        <v>0.1144976665549941</v>
       </c>
       <c r="D78">
-        <v>0.1356292373976013</v>
+        <v>-0.08314866534424405</v>
       </c>
       <c r="E78">
-        <v>-0.07622988827204562</v>
+        <v>-0.03842609035895734</v>
       </c>
       <c r="F78">
-        <v>0.08323665853051988</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.03956307381109166</v>
+      </c>
+      <c r="G78">
+        <v>-0.0171581066590177</v>
+      </c>
+      <c r="H78">
+        <v>-0.01976094629707287</v>
+      </c>
+      <c r="I78">
+        <v>0.08164973636243604</v>
+      </c>
+      <c r="J78">
+        <v>0.04940427771278488</v>
+      </c>
+      <c r="K78">
+        <v>-0.05642040318419218</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>-0.02258379220972148</v>
+        <v>0.05929617363420775</v>
       </c>
       <c r="C79">
-        <v>-0.1430168574147335</v>
+        <v>0.1382150578555325</v>
       </c>
       <c r="D79">
-        <v>0.1008502607535939</v>
+        <v>-0.06539868557883367</v>
       </c>
       <c r="E79">
-        <v>0.1013114786436248</v>
+        <v>0.008177891111119858</v>
       </c>
       <c r="F79">
-        <v>0.04271883354095951</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>-0.0520370511861468</v>
+      </c>
+      <c r="G79">
+        <v>0.03998499063961871</v>
+      </c>
+      <c r="H79">
+        <v>-0.04829627534824711</v>
+      </c>
+      <c r="I79">
+        <v>0.2598701276956331</v>
+      </c>
+      <c r="J79">
+        <v>-0.02609160317769001</v>
+      </c>
+      <c r="K79">
+        <v>0.06571430548235749</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>-0.007789096947978968</v>
+        <v>0.02111549142496443</v>
       </c>
       <c r="C80">
-        <v>-0.05736747799144921</v>
+        <v>0.04439069479837462</v>
       </c>
       <c r="D80">
-        <v>0.03109475920466847</v>
+        <v>-0.03334123558962226</v>
       </c>
       <c r="E80">
-        <v>-0.03183950828013773</v>
+        <v>-0.0190143973524113</v>
       </c>
       <c r="F80">
-        <v>0.01867597296128579</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.02984646882394839</v>
+      </c>
+      <c r="G80">
+        <v>-0.05962993191952696</v>
+      </c>
+      <c r="H80">
+        <v>0.03699074458445741</v>
+      </c>
+      <c r="I80">
+        <v>-0.0760761144480043</v>
+      </c>
+      <c r="J80">
+        <v>-0.008403289640744199</v>
+      </c>
+      <c r="K80">
+        <v>0.02009996108315414</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>0.0002953562609696751</v>
+        <v>0.01793261986433285</v>
       </c>
       <c r="C81">
-        <v>-0.08611525770086365</v>
+        <v>0.09781936336258719</v>
       </c>
       <c r="D81">
-        <v>0.053579741857967</v>
+        <v>-0.05467092660145868</v>
       </c>
       <c r="E81">
-        <v>0.08571182973989445</v>
+        <v>0.005727389923135099</v>
       </c>
       <c r="F81">
-        <v>0.01161473926798185</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.03545233646418618</v>
+      </c>
+      <c r="G81">
+        <v>0.02535067880722288</v>
+      </c>
+      <c r="H81">
+        <v>-0.03014177599311125</v>
+      </c>
+      <c r="I81">
+        <v>0.1181184529839588</v>
+      </c>
+      <c r="J81">
+        <v>0.02087371854341153</v>
+      </c>
+      <c r="K81">
+        <v>0.06300626515540377</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>-0.01666585352848969</v>
+        <v>0.04966239918866086</v>
       </c>
       <c r="C82">
-        <v>-0.0773258707499743</v>
+        <v>0.1066007861103414</v>
       </c>
       <c r="D82">
-        <v>0.0714987658968511</v>
+        <v>-0.06588819768503787</v>
       </c>
       <c r="E82">
-        <v>0.08763080339378768</v>
+        <v>0.005114370645318144</v>
       </c>
       <c r="F82">
-        <v>0.02958035345548606</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>-0.06265729291834649</v>
+      </c>
+      <c r="G82">
+        <v>0.05086769670372419</v>
+      </c>
+      <c r="H82">
+        <v>-0.04789666196019685</v>
+      </c>
+      <c r="I82">
+        <v>0.07502436013783768</v>
+      </c>
+      <c r="J82">
+        <v>-0.04598225752926877</v>
+      </c>
+      <c r="K82">
+        <v>0.009255174446815799</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>-0.01452288908815058</v>
+        <v>-0.0003191410764963626</v>
       </c>
       <c r="C83">
-        <v>-0.004814170514983022</v>
+        <v>-0.02296088905889048</v>
       </c>
       <c r="D83">
-        <v>-0.1306412084408785</v>
+        <v>0.05695406232252984</v>
       </c>
       <c r="E83">
-        <v>-0.4890691234043265</v>
+        <v>0.03282549565542506</v>
       </c>
       <c r="F83">
-        <v>0.7611315319268041</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.7443962133012054</v>
+      </c>
+      <c r="G83">
+        <v>-0.6051422499318363</v>
+      </c>
+      <c r="H83">
+        <v>-0.04000434088552792</v>
+      </c>
+      <c r="I83">
+        <v>-0.01508271692394532</v>
+      </c>
+      <c r="J83">
+        <v>-0.1204018884425619</v>
+      </c>
+      <c r="K83">
+        <v>-0.06445855170755947</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>0.008760049801592965</v>
+        <v>0.01486532518550359</v>
       </c>
       <c r="C84">
-        <v>-0.1004405564426453</v>
+        <v>0.06142643300297197</v>
       </c>
       <c r="D84">
-        <v>0.01556178655745061</v>
+        <v>-0.08508757714974352</v>
       </c>
       <c r="E84">
-        <v>-0.0616249321663677</v>
+        <v>-0.2230916482226862</v>
       </c>
       <c r="F84">
-        <v>-0.1488398670140563</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>0.1465820261774778</v>
+      </c>
+      <c r="G84">
+        <v>-0.09955487277960819</v>
+      </c>
+      <c r="H84">
+        <v>-0.6900407551155994</v>
+      </c>
+      <c r="I84">
+        <v>-0.3741032652647714</v>
+      </c>
+      <c r="J84">
+        <v>-0.4379369761431578</v>
+      </c>
+      <c r="K84">
+        <v>0.1467675875733578</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.000661701889226461</v>
+        <v>0.03492227370696414</v>
       </c>
       <c r="C85">
-        <v>-0.09576714704896325</v>
+        <v>0.1159665059371471</v>
       </c>
       <c r="D85">
-        <v>0.0597010750433345</v>
+        <v>-0.0807635000198503</v>
       </c>
       <c r="E85">
-        <v>0.08362972363191401</v>
+        <v>0.01787176937977166</v>
       </c>
       <c r="F85">
-        <v>0.02913228716798387</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.07884429432625756</v>
+      </c>
+      <c r="G85">
+        <v>0.09927265545914536</v>
+      </c>
+      <c r="H85">
+        <v>-0.06331477405409423</v>
+      </c>
+      <c r="I85">
+        <v>0.2249868540636853</v>
+      </c>
+      <c r="J85">
+        <v>-0.1054533789858726</v>
+      </c>
+      <c r="K85">
+        <v>0.08418741660503021</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>-0.01523047352034265</v>
+        <v>0.01620145767585286</v>
       </c>
       <c r="C86">
-        <v>-0.1053284623933611</v>
+        <v>0.07862276098573368</v>
       </c>
       <c r="D86">
-        <v>0.005039275473562177</v>
+        <v>-0.03643068125724509</v>
       </c>
       <c r="E86">
-        <v>-0.02896559772818827</v>
+        <v>-0.05387559487964433</v>
       </c>
       <c r="F86">
-        <v>-0.04532502967818805</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.03690741385400446</v>
+      </c>
+      <c r="G86">
+        <v>-0.07906726879628995</v>
+      </c>
+      <c r="H86">
+        <v>0.07426437582845664</v>
+      </c>
+      <c r="I86">
+        <v>0.0844569654368417</v>
+      </c>
+      <c r="J86">
+        <v>0.03742939205653004</v>
+      </c>
+      <c r="K86">
+        <v>0.117735284202506</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>-0.006846182895606612</v>
+        <v>0.02806651379824293</v>
       </c>
       <c r="C87">
-        <v>-0.1614043113611627</v>
+        <v>0.1171750647582348</v>
       </c>
       <c r="D87">
-        <v>0.01924398523318008</v>
+        <v>-0.01719316117442262</v>
       </c>
       <c r="E87">
-        <v>-0.08492236544927302</v>
+        <v>0.0308299860415855</v>
       </c>
       <c r="F87">
-        <v>-0.06990100451029595</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.02597760860236039</v>
+      </c>
+      <c r="G87">
+        <v>-0.03634944629248117</v>
+      </c>
+      <c r="H87">
+        <v>-0.02487284604349083</v>
+      </c>
+      <c r="I87">
+        <v>0.001267277720108835</v>
+      </c>
+      <c r="J87">
+        <v>0.01726842620473968</v>
+      </c>
+      <c r="K87">
+        <v>-0.0754046336203051</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>-0.00822971692440683</v>
+        <v>0.04019098575380491</v>
       </c>
       <c r="C88">
-        <v>-0.03676600027276037</v>
+        <v>0.05962221619257363</v>
       </c>
       <c r="D88">
-        <v>0.04329284345685227</v>
+        <v>-0.03599683784077095</v>
       </c>
       <c r="E88">
-        <v>0.04951029451635872</v>
+        <v>0.01425294413793751</v>
       </c>
       <c r="F88">
-        <v>0.01035926048129105</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.006034471305579256</v>
+      </c>
+      <c r="G88">
+        <v>0.02185170930635582</v>
+      </c>
+      <c r="H88">
+        <v>0.01855387095844834</v>
+      </c>
+      <c r="I88">
+        <v>-0.002663857505347617</v>
+      </c>
+      <c r="J88">
+        <v>0.02095904093043093</v>
+      </c>
+      <c r="K88">
+        <v>-0.0100379222160749</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>-0.4149496522817485</v>
+        <v>0.3886210290552624</v>
       </c>
       <c r="C89">
-        <v>0.06425822977641957</v>
+        <v>-0.1282983906227393</v>
       </c>
       <c r="D89">
-        <v>0.0812098794344914</v>
+        <v>0.03328593164448852</v>
       </c>
       <c r="E89">
-        <v>-0.08183904725537434</v>
+        <v>0.03158633364708893</v>
       </c>
       <c r="F89">
-        <v>-0.06860376725507923</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.06776006563549775</v>
+      </c>
+      <c r="G89">
+        <v>-0.009216214899851949</v>
+      </c>
+      <c r="H89">
+        <v>-0.08135355339532317</v>
+      </c>
+      <c r="I89">
+        <v>-0.02670641826853562</v>
+      </c>
+      <c r="J89">
+        <v>-0.01681279727766054</v>
+      </c>
+      <c r="K89">
+        <v>-0.7488189147949742</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>-0.3048645076107219</v>
+        <v>0.3139800358153738</v>
       </c>
       <c r="C90">
-        <v>0.01560414863358355</v>
+        <v>-0.08793061998829409</v>
       </c>
       <c r="D90">
-        <v>-0.01351898960669192</v>
+        <v>0.02227159910701264</v>
       </c>
       <c r="E90">
-        <v>-0.0492242576875722</v>
+        <v>-0.01671033784387969</v>
       </c>
       <c r="F90">
-        <v>0.01955374632773282</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.01519779849471214</v>
+      </c>
+      <c r="G90">
+        <v>-0.03213768231798604</v>
+      </c>
+      <c r="H90">
+        <v>-0.006914344201328667</v>
+      </c>
+      <c r="I90">
+        <v>-0.002664580734699326</v>
+      </c>
+      <c r="J90">
+        <v>0.002053230050612037</v>
+      </c>
+      <c r="K90">
+        <v>0.1102474382671522</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>-0.02698233592050693</v>
+        <v>0.05883338748164669</v>
       </c>
       <c r="C91">
-        <v>-0.07592688021980658</v>
+        <v>0.07719797006423476</v>
       </c>
       <c r="D91">
-        <v>0.0601031869247179</v>
+        <v>-0.05411836503149331</v>
       </c>
       <c r="E91">
-        <v>0.033206431800793</v>
+        <v>0.01532334833104105</v>
       </c>
       <c r="F91">
-        <v>0.05073318281942393</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.06295848406514036</v>
+      </c>
+      <c r="G91">
+        <v>0.01184788878351898</v>
+      </c>
+      <c r="H91">
+        <v>0.002170610750729351</v>
+      </c>
+      <c r="I91">
+        <v>0.09507964602568023</v>
+      </c>
+      <c r="J91">
+        <v>-0.05033689454313855</v>
+      </c>
+      <c r="K91">
+        <v>0.01499854179704183</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>-0.3746426907927659</v>
+        <v>0.3492244745950147</v>
       </c>
       <c r="C92">
-        <v>0.05856723785594743</v>
+        <v>-0.1247212148411745</v>
       </c>
       <c r="D92">
-        <v>-0.01592968160001257</v>
+        <v>0.04793180075015654</v>
       </c>
       <c r="E92">
-        <v>0.01168874437567391</v>
+        <v>0.01571353316172314</v>
       </c>
       <c r="F92">
-        <v>-0.1132934591927182</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.0592179005295628</v>
+      </c>
+      <c r="G92">
+        <v>-0.01200632791246419</v>
+      </c>
+      <c r="H92">
+        <v>-0.0248165208391507</v>
+      </c>
+      <c r="I92">
+        <v>0.02273299250368499</v>
+      </c>
+      <c r="J92">
+        <v>0.06323482472460942</v>
+      </c>
+      <c r="K92">
+        <v>0.1291548225666668</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>-0.3143009639311186</v>
+        <v>0.3056699267376845</v>
       </c>
       <c r="C93">
-        <v>0.07600009010469255</v>
+        <v>-0.128535061781319</v>
       </c>
       <c r="D93">
-        <v>0.001225089709168511</v>
+        <v>0.00839585032090457</v>
       </c>
       <c r="E93">
-        <v>-0.05215131959146846</v>
+        <v>-0.02919736609662153</v>
       </c>
       <c r="F93">
-        <v>-0.02760262651818281</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.03203003952231603</v>
+      </c>
+      <c r="G93">
+        <v>-0.04044946706030429</v>
+      </c>
+      <c r="H93">
+        <v>-0.009397336312191744</v>
+      </c>
+      <c r="I93">
+        <v>0.05133353540525608</v>
+      </c>
+      <c r="J93">
+        <v>0.02471148315793267</v>
+      </c>
+      <c r="K93">
+        <v>0.1407183661712456</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>-0.02316224819338841</v>
+        <v>0.08839123113320199</v>
       </c>
       <c r="C94">
-        <v>-0.2017107389865678</v>
+        <v>0.1726906863126857</v>
       </c>
       <c r="D94">
-        <v>0.08762356095231895</v>
+        <v>-0.1064998366599965</v>
       </c>
       <c r="E94">
-        <v>0.07837362791534905</v>
+        <v>0.01761932796073248</v>
       </c>
       <c r="F94">
-        <v>-0.06334822751792477</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.06778436809184708</v>
+      </c>
+      <c r="G94">
+        <v>0.07874905130410398</v>
+      </c>
+      <c r="H94">
+        <v>-0.04861752889627693</v>
+      </c>
+      <c r="I94">
+        <v>0.4455762227093304</v>
+      </c>
+      <c r="J94">
+        <v>-0.3035417748407986</v>
+      </c>
+      <c r="K94">
+        <v>-0.04328413072213561</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>-0.02732706974530232</v>
+        <v>0.04658040091326897</v>
       </c>
       <c r="C95">
-        <v>-0.1258378767718301</v>
+        <v>0.1355361206398475</v>
       </c>
       <c r="D95">
-        <v>0.0613547011514687</v>
+        <v>-0.06656139419653123</v>
       </c>
       <c r="E95">
-        <v>0.1467416784849983</v>
+        <v>0.0204293298106183</v>
       </c>
       <c r="F95">
-        <v>0.09268810123568359</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.01680258464940189</v>
+      </c>
+      <c r="G95">
+        <v>0.08327188285697859</v>
+      </c>
+      <c r="H95">
+        <v>-0.1042384884078846</v>
+      </c>
+      <c r="I95">
+        <v>-0.04817031067979861</v>
+      </c>
+      <c r="J95">
+        <v>-0.0317368850435252</v>
+      </c>
+      <c r="K95">
+        <v>-0.1272879715175255</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,70 +4057,130 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>-0.001254108026925681</v>
+        <v>0.02360074843080873</v>
       </c>
       <c r="C97">
-        <v>-0.0001863190487634895</v>
+        <v>0.02583764811261637</v>
       </c>
       <c r="D97">
-        <v>0.001426114814377667</v>
+        <v>-0.001217432367482842</v>
       </c>
       <c r="E97">
-        <v>0.004473750142318387</v>
+        <v>-0.0500288691612771</v>
       </c>
       <c r="F97">
-        <v>-0.00359559471414405</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>0.01390901355835917</v>
+      </c>
+      <c r="G97">
+        <v>0.01768445299693808</v>
+      </c>
+      <c r="H97">
+        <v>0.02075396154044552</v>
+      </c>
+      <c r="I97">
+        <v>0.0006009832236335193</v>
+      </c>
+      <c r="J97">
+        <v>0.02991906614832894</v>
+      </c>
+      <c r="K97">
+        <v>-0.06642719902641589</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>-0.0948897146202529</v>
+        <v>0.1407062461564279</v>
       </c>
       <c r="C98">
-        <v>-0.1602277536921864</v>
+        <v>0.1602399568439604</v>
       </c>
       <c r="D98">
-        <v>0.135102790227438</v>
+        <v>-0.08228982897191653</v>
       </c>
       <c r="E98">
-        <v>0.1615286190071996</v>
+        <v>0.04902786402159427</v>
       </c>
       <c r="F98">
-        <v>0.1704640655659829</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.1511606642156962</v>
+      </c>
+      <c r="G98">
+        <v>0.1683408692026256</v>
+      </c>
+      <c r="H98">
+        <v>0.2653922050514885</v>
+      </c>
+      <c r="I98">
+        <v>-0.3130622584095327</v>
+      </c>
+      <c r="J98">
+        <v>-0.1638735755431918</v>
+      </c>
+      <c r="K98">
+        <v>0.1193215272573357</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.02566717426977298</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>0.04499156052511785</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>0.03704547588557679</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>-0.9489722585161707</v>
       </c>
       <c r="F99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>-0.1153549040396964</v>
+      </c>
+      <c r="G99">
+        <v>0.08465053827295316</v>
+      </c>
+      <c r="H99">
+        <v>0.1756972200865659</v>
+      </c>
+      <c r="I99">
+        <v>0.06405189712401138</v>
+      </c>
+      <c r="J99">
+        <v>0.04220435952135947</v>
+      </c>
+      <c r="K99">
+        <v>-0.07873542963250582</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,50 +4197,95 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>-0.007735724598623856</v>
+        <v>0.01844884283210874</v>
       </c>
       <c r="C101">
-        <v>-0.07842974708616189</v>
+        <v>0.08135828405430301</v>
       </c>
       <c r="D101">
-        <v>0.05784037619186481</v>
+        <v>-0.04656196176374655</v>
       </c>
       <c r="E101">
-        <v>0.01650484161556168</v>
+        <v>0.009661561070886872</v>
       </c>
       <c r="F101">
-        <v>0.03696918744274516</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.03948844420374818</v>
+      </c>
+      <c r="G101">
+        <v>-0.02465149612071433</v>
+      </c>
+      <c r="H101">
+        <v>-0.1147799859161178</v>
+      </c>
+      <c r="I101">
+        <v>-0.1186943934955889</v>
+      </c>
+      <c r="J101">
+        <v>0.2647997139894107</v>
+      </c>
+      <c r="K101">
+        <v>-0.01566840613480521</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>0.0003453021312008597</v>
+        <v>0.0002884591425371458</v>
       </c>
       <c r="C102">
-        <v>-0.009825574923885593</v>
+        <v>0.004778539665224947</v>
       </c>
       <c r="D102">
-        <v>0.007968604696374179</v>
+        <v>-0.001853818419678092</v>
       </c>
       <c r="E102">
-        <v>0.01107995226243042</v>
+        <v>0.002183224167626532</v>
       </c>
       <c r="F102">
-        <v>0.017680819846538</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.008431275406265711</v>
+      </c>
+      <c r="G102">
+        <v>0.003290633850878009</v>
+      </c>
+      <c r="H102">
+        <v>-0.001941208402661407</v>
+      </c>
+      <c r="I102">
+        <v>0.001203571464469611</v>
+      </c>
+      <c r="J102">
+        <v>0.00067007759749947</v>
+      </c>
+      <c r="K102">
+        <v>-0.02531761315607758</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2757,10 +4302,25 @@
       <c r="F103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +4335,21 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
